--- a/MatLab/Implied Vol Mkt Data/MarketData.xlsx
+++ b/MatLab/Implied Vol Mkt Data/MarketData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Thesis\MatLab\Implied Vol Mkt Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB626213-7576-4998-8088-A36CD8B40F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40C563-B5C2-41E7-85F4-F493F56588C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="2" xr2:uid="{99822B3E-F69C-442B-BE7D-8A1C7BA98CD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="4" xr2:uid="{99822B3E-F69C-442B-BE7D-8A1C7BA98CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
     <sheet name="xC++" sheetId="4" r:id="rId4"/>
+    <sheet name="exportLatex" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="116">
   <si>
     <t>Bid</t>
   </si>
@@ -377,6 +378,15 @@
   <si>
     <t>VIXC172102300.U</t>
   </si>
+  <si>
+    <t>ttm</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
 </sst>
 </file>
 
@@ -388,8 +398,16 @@
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -616,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -693,6 +711,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7661,8 +7682,8 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9354,7 +9375,7 @@
       <c r="J48" s="5"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" t="s">
         <v>5</v>
@@ -9381,7 +9402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
@@ -9418,8 +9439,9 @@
       <c r="L50">
         <v>0.57030000000000003</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
@@ -9456,8 +9478,9 @@
       <c r="L51">
         <v>0.30590000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
@@ -9495,7 +9518,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
@@ -9533,7 +9556,7 @@
         <v>0.10680000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
@@ -9571,7 +9594,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
@@ -9602,14 +9625,14 @@
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>52</v>
+      <c r="K55" s="2">
+        <v>166.51339999999999</v>
       </c>
       <c r="L55">
         <v>0.4199</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
@@ -9640,14 +9663,14 @@
         <f t="shared" si="5"/>
         <v>1.5750000000000002</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>52</v>
+      <c r="K56" s="2">
+        <v>184.5205</v>
       </c>
       <c r="L56">
         <v>0.2878</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
@@ -9678,14 +9701,14 @@
         <f t="shared" si="5"/>
         <v>1.0750000000000002</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>52</v>
+      <c r="K57" s="2">
+        <v>202.55500000000001</v>
       </c>
       <c r="L57">
         <v>0.2036</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
         <v>105</v>
       </c>
@@ -9716,14 +9739,15 @@
         <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
-      <c r="K58" t="s">
-        <v>52</v>
+      <c r="K58">
+        <v>208.74799999999999</v>
       </c>
       <c r="L58">
         <v>0.1678</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
@@ -9754,14 +9778,15 @@
         <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="K59" t="s">
-        <v>52</v>
+      <c r="K59">
+        <v>220.29920000000001</v>
       </c>
       <c r="L59">
         <v>0.1147</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
@@ -9792,14 +9817,15 @@
         <f t="shared" si="5"/>
         <v>3.95</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>52</v>
+      <c r="K60" s="2">
+        <v>161.17349999999999</v>
       </c>
       <c r="L60">
         <v>0.50280000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>106</v>
       </c>
@@ -9830,14 +9856,14 @@
         <f t="shared" si="5"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>52</v>
+      <c r="K61" s="2">
+        <v>169.6207</v>
       </c>
       <c r="L61">
         <v>0.33850000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
@@ -9868,14 +9894,14 @@
         <f t="shared" si="5"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>52</v>
+      <c r="K62" s="2">
+        <v>178.12180000000001</v>
       </c>
       <c r="L62">
         <v>0.2341</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
         <v>107</v>
       </c>
@@ -9906,14 +9932,14 @@
         <f t="shared" si="5"/>
         <v>1.2250000000000001</v>
       </c>
-      <c r="K63" t="s">
-        <v>52</v>
+      <c r="K63">
+        <v>181.35159999999999</v>
       </c>
       <c r="L63">
         <v>0.1993</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>66</v>
       </c>
@@ -9944,14 +9970,14 @@
         <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
-      <c r="K64" t="s">
-        <v>52</v>
+      <c r="K64">
+        <v>186.57689999999999</v>
       </c>
       <c r="L64">
         <v>0.14829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
@@ -9982,14 +10008,14 @@
         <f t="shared" si="5"/>
         <v>3.95</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>52</v>
+      <c r="K65" s="2">
+        <v>152.8246</v>
       </c>
       <c r="L65">
         <v>0.47860000000000003</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
@@ -10020,14 +10046,14 @@
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>52</v>
+      <c r="K66" s="2">
+        <v>155.458</v>
       </c>
       <c r="L66">
         <v>0.31580000000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
@@ -10058,14 +10084,15 @@
         <f t="shared" si="5"/>
         <v>1.4500000000000002</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>52</v>
+      <c r="K67" s="2">
+        <v>158.6327</v>
       </c>
       <c r="L67">
         <v>0.22220000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P67" s="76"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>109</v>
       </c>
@@ -10096,14 +10123,15 @@
         <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>52</v>
+      <c r="K68" s="2">
+        <v>161.48320000000001</v>
       </c>
       <c r="L68">
         <v>0.1681</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="P68" s="76"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="2" t="s">
         <v>67</v>
       </c>
@@ -10134,12 +10162,13 @@
         <f t="shared" si="5"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>52</v>
+      <c r="K69" s="2">
+        <v>165.10120000000001</v>
       </c>
       <c r="L69">
         <v>0.12909999999999999</v>
       </c>
+      <c r="P69" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10855,4 +10884,2922 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303F1FD6-90D4-4455-B34E-253026BEFB37}">
+  <dimension ref="B1:U69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3968.94</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="O2" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20.18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="O3" s="69">
+        <v>0</v>
+      </c>
+      <c r="P3" s="66">
+        <f>P4</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="O4" s="55">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44271</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="O5" s="56">
+        <f>2/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="O6" s="56">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="P6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44302</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8:E47" si="0">D8-$C$5</f>
+        <v>31</v>
+      </c>
+      <c r="F8" s="74">
+        <f t="shared" ref="F8:F47" si="1">E8/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J47" si="2">(H8+I8)/2</f>
+        <v>13.75</v>
+      </c>
+      <c r="K8">
+        <v>25.7</v>
+      </c>
+      <c r="L8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="O8" s="57">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44302</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="74">
+        <f t="shared" si="1"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3800</v>
+      </c>
+      <c r="H9" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>32.1</v>
+      </c>
+      <c r="K9">
+        <v>20.07</v>
+      </c>
+      <c r="L9">
+        <v>-0.2283</v>
+      </c>
+      <c r="O9" s="70">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44302</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="74">
+        <f t="shared" si="1"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3975</v>
+      </c>
+      <c r="H10" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="K10">
+        <v>15.41</v>
+      </c>
+      <c r="L10">
+        <v>0.48670000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44302</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="74">
+        <f t="shared" si="1"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4075</v>
+      </c>
+      <c r="H11" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25.900000000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>25.55</v>
+      </c>
+      <c r="K11">
+        <v>13.99</v>
+      </c>
+      <c r="L11">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44302</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="74">
+        <f t="shared" si="1"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4250</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="K12">
+        <v>13.9</v>
+      </c>
+      <c r="L12">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44337</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="74">
+        <f t="shared" si="1"/>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3400</v>
+      </c>
+      <c r="H13" s="3">
+        <v>24.900000000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="K13">
+        <v>29.36</v>
+      </c>
+      <c r="L13">
+        <v>-0.1007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44337</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F14" s="74">
+        <f t="shared" si="1"/>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>54.1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>22.92</v>
+      </c>
+      <c r="L14">
+        <v>-0.22889999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44337</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F15" s="74">
+        <f t="shared" si="1"/>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3925</v>
+      </c>
+      <c r="H15" s="3">
+        <v>141.20000000000002</v>
+      </c>
+      <c r="I15" s="3">
+        <v>142.4</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44337</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="74">
+        <f t="shared" si="1"/>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4200</v>
+      </c>
+      <c r="H16" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="L16">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3600</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3800</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3975</v>
+      </c>
+      <c r="T16" s="2">
+        <v>4075</v>
+      </c>
+      <c r="U16" s="2">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44337</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F17" s="74">
+        <f t="shared" si="1"/>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="L17">
+        <v>0.1021</v>
+      </c>
+      <c r="P17">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3400</v>
+      </c>
+      <c r="R17" s="2">
+        <v>3700</v>
+      </c>
+      <c r="S17" s="2">
+        <v>3925</v>
+      </c>
+      <c r="T17" s="2">
+        <v>4200</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44365</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F18" s="74">
+        <f t="shared" si="1"/>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>32.68</v>
+      </c>
+      <c r="L18">
+        <v>-8.72E-2</v>
+      </c>
+      <c r="P18">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3200</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3700</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3950</v>
+      </c>
+      <c r="T18" s="2">
+        <v>4200</v>
+      </c>
+      <c r="U18" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44365</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F19" s="74">
+        <f t="shared" si="1"/>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3700</v>
+      </c>
+      <c r="H19" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>81</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K19" s="2">
+        <v>23.15</v>
+      </c>
+      <c r="L19">
+        <v>-0.26469999999999999</v>
+      </c>
+      <c r="P19">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3200</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3925</v>
+      </c>
+      <c r="T19" s="2">
+        <v>4250</v>
+      </c>
+      <c r="U19" s="2">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44365</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F20" s="74">
+        <f t="shared" si="1"/>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3950</v>
+      </c>
+      <c r="H20" s="3">
+        <v>153.6</v>
+      </c>
+      <c r="I20" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>154.25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>18.55</v>
+      </c>
+      <c r="L20">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="P20">
+        <v>157</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3100</v>
+      </c>
+      <c r="R20" s="2">
+        <v>3500</v>
+      </c>
+      <c r="S20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="T20" s="2">
+        <v>4250</v>
+      </c>
+      <c r="U20" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44365</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F21" s="74">
+        <f t="shared" si="1"/>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44.300000000000004</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>43.900000000000006</v>
+      </c>
+      <c r="K21" s="2">
+        <v>15.71</v>
+      </c>
+      <c r="L21">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="P21">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3100</v>
+      </c>
+      <c r="R21" s="2">
+        <v>3500</v>
+      </c>
+      <c r="S21" s="2">
+        <v>3900</v>
+      </c>
+      <c r="T21" s="2">
+        <v>4300</v>
+      </c>
+      <c r="U21" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44365</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F22" s="74">
+        <f t="shared" si="1"/>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>15.21</v>
+      </c>
+      <c r="L22">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="P22">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2900</v>
+      </c>
+      <c r="R22" s="2">
+        <v>3300</v>
+      </c>
+      <c r="S22" s="2">
+        <v>3900</v>
+      </c>
+      <c r="T22" s="2">
+        <v>4300</v>
+      </c>
+      <c r="U22" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F23" s="74">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>41.2</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>40.85</v>
+      </c>
+      <c r="K23" s="2">
+        <v>31.77</v>
+      </c>
+      <c r="L23">
+        <v>-0.10730000000000001</v>
+      </c>
+      <c r="P23">
+        <v>367</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2700</v>
+      </c>
+      <c r="R23" s="2">
+        <v>3300</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3850</v>
+      </c>
+      <c r="T23" s="2">
+        <v>4475</v>
+      </c>
+      <c r="U23" s="2">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F24" s="74">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="I24" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>85.35</v>
+      </c>
+      <c r="K24" s="2">
+        <v>24.95</v>
+      </c>
+      <c r="L24">
+        <v>-0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F25" s="74">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3925</v>
+      </c>
+      <c r="H25" s="3">
+        <v>194</v>
+      </c>
+      <c r="I25" s="3">
+        <v>195.6</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>194.8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="L25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F26" s="74">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4250</v>
+      </c>
+      <c r="H26" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>48.55</v>
+      </c>
+      <c r="K26" s="2">
+        <v>16.02</v>
+      </c>
+      <c r="L26">
+        <v>0.23369999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44393</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F27" s="74">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
+        <v>22.15</v>
+      </c>
+      <c r="K27" s="2">
+        <v>15.54</v>
+      </c>
+      <c r="L27">
+        <v>0.128</v>
+      </c>
+      <c r="P27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="F28" s="74">
+        <f t="shared" si="1"/>
+        <v>0.43013698630136987</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3100</v>
+      </c>
+      <c r="H28" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>49</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>48.55</v>
+      </c>
+      <c r="K28" s="2">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="L28">
+        <v>-0.1077</v>
+      </c>
+      <c r="P28">
+        <v>31</v>
+      </c>
+      <c r="Q28">
+        <v>13.75</v>
+      </c>
+      <c r="R28">
+        <v>32.1</v>
+      </c>
+      <c r="S28">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="T28">
+        <v>25.55</v>
+      </c>
+      <c r="U28">
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="F29" s="74">
+        <f t="shared" si="1"/>
+        <v>0.43013698630136987</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="I29" s="3">
+        <v>94.3</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>93.85</v>
+      </c>
+      <c r="K29" s="2">
+        <v>26.51</v>
+      </c>
+      <c r="L29">
+        <v>-0.2167</v>
+      </c>
+      <c r="P29">
+        <v>66</v>
+      </c>
+      <c r="Q29">
+        <v>25.200000000000003</v>
+      </c>
+      <c r="R29">
+        <v>54.5</v>
+      </c>
+      <c r="S29">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="T29">
+        <v>25.5</v>
+      </c>
+      <c r="U29">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="F30" s="74">
+        <f t="shared" si="1"/>
+        <v>0.43013698630136987</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>175.9</v>
+      </c>
+      <c r="I30" s="3">
+        <v>177.1</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="2"/>
+        <v>176.5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>19.07</v>
+      </c>
+      <c r="L30">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="P30">
+        <v>94</v>
+      </c>
+      <c r="Q30">
+        <v>28.5</v>
+      </c>
+      <c r="R30">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S30">
+        <v>154.25</v>
+      </c>
+      <c r="T30">
+        <v>43.900000000000006</v>
+      </c>
+      <c r="U30">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="F31" s="74">
+        <f t="shared" si="1"/>
+        <v>0.43013698630136987</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4250</v>
+      </c>
+      <c r="H31" s="3">
+        <v>68</v>
+      </c>
+      <c r="I31" s="3">
+        <v>69.100000000000009</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="2"/>
+        <v>68.550000000000011</v>
+      </c>
+      <c r="K31" s="2">
+        <v>16.63</v>
+      </c>
+      <c r="L31">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="P31">
+        <v>122</v>
+      </c>
+      <c r="Q31">
+        <v>40.85</v>
+      </c>
+      <c r="R31">
+        <v>85.35</v>
+      </c>
+      <c r="S31">
+        <v>194.8</v>
+      </c>
+      <c r="T31">
+        <v>48.55</v>
+      </c>
+      <c r="U31">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="F32" s="74">
+        <f t="shared" si="1"/>
+        <v>0.43013698630136987</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>21.900000000000002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="2"/>
+        <v>22.3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>15.79</v>
+      </c>
+      <c r="L32">
+        <v>0.1153</v>
+      </c>
+      <c r="P32">
+        <v>157</v>
+      </c>
+      <c r="Q32">
+        <v>48.55</v>
+      </c>
+      <c r="R32">
+        <v>93.85</v>
+      </c>
+      <c r="S32">
+        <v>176.5</v>
+      </c>
+      <c r="T32">
+        <v>68.550000000000011</v>
+      </c>
+      <c r="U32">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F33" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>58.7</v>
+      </c>
+      <c r="I33" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
+        <v>59.150000000000006</v>
+      </c>
+      <c r="K33" s="2">
+        <v>31.91</v>
+      </c>
+      <c r="L33">
+        <v>-0.1198</v>
+      </c>
+      <c r="P33">
+        <v>185</v>
+      </c>
+      <c r="Q33">
+        <v>59.150000000000006</v>
+      </c>
+      <c r="R33">
+        <v>110.45</v>
+      </c>
+      <c r="S33">
+        <v>255.5</v>
+      </c>
+      <c r="T33">
+        <v>67.55</v>
+      </c>
+      <c r="U33">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F34" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H34" s="3">
+        <v>109.9</v>
+      </c>
+      <c r="I34" s="3">
+        <v>111</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="2"/>
+        <v>110.45</v>
+      </c>
+      <c r="K34" s="2">
+        <v>26.29</v>
+      </c>
+      <c r="L34">
+        <v>-0.23050000000000001</v>
+      </c>
+      <c r="P34">
+        <v>276</v>
+      </c>
+      <c r="Q34">
+        <v>68</v>
+      </c>
+      <c r="R34">
+        <v>121.45</v>
+      </c>
+      <c r="S34">
+        <v>307</v>
+      </c>
+      <c r="T34">
+        <v>106.9</v>
+      </c>
+      <c r="U34">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F35" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>254.20000000000002</v>
+      </c>
+      <c r="I35" s="3">
+        <v>256.8</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="2"/>
+        <v>255.5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>20.61</v>
+      </c>
+      <c r="L35">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="P35">
+        <v>367</v>
+      </c>
+      <c r="Q35">
+        <v>70.300000000000011</v>
+      </c>
+      <c r="R35">
+        <v>157.75</v>
+      </c>
+      <c r="S35">
+        <v>381.95000000000005</v>
+      </c>
+      <c r="T35">
+        <v>92.1</v>
+      </c>
+      <c r="U35">
+        <v>39.150000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F36" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4300</v>
+      </c>
+      <c r="H36" s="3">
+        <v>67</v>
+      </c>
+      <c r="I36" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
+        <v>67.55</v>
+      </c>
+      <c r="K36" s="2">
+        <v>16.57</v>
+      </c>
+      <c r="L36">
+        <v>0.25269999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F37" s="74">
+        <f t="shared" si="1"/>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4600</v>
+      </c>
+      <c r="H37" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="I37" s="3">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K37" s="2">
+        <v>15.79</v>
+      </c>
+      <c r="L37">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F38" s="74">
+        <f t="shared" si="1"/>
+        <v>0.75616438356164384</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2900</v>
+      </c>
+      <c r="H38" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="I38" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="K38" s="2">
+        <v>32.49</v>
+      </c>
+      <c r="L38">
+        <v>-0.11020000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F39" s="74">
+        <f t="shared" si="1"/>
+        <v>0.75616438356164384</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3300</v>
+      </c>
+      <c r="H39" s="3">
+        <v>120.5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>122.4</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="2"/>
+        <v>121.45</v>
+      </c>
+      <c r="K39" s="2">
+        <v>28.09</v>
+      </c>
+      <c r="L39">
+        <v>-0.19789999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F40" s="74">
+        <f t="shared" si="1"/>
+        <v>0.75616438356164384</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3900</v>
+      </c>
+      <c r="H40" s="3">
+        <v>305.5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>308.5</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="K40" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="L40">
+        <v>0.5524</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F41" s="74">
+        <f t="shared" si="1"/>
+        <v>0.75616438356164384</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>108</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="2"/>
+        <v>106.9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="L41">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="P41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44547</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F42" s="74">
+        <f t="shared" si="1"/>
+        <v>0.75616438356164384</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>40</v>
+      </c>
+      <c r="I42" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="2"/>
+        <v>40.85</v>
+      </c>
+      <c r="K42" s="2">
+        <v>16.16</v>
+      </c>
+      <c r="L42">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="P42">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>26</v>
+      </c>
+      <c r="R42" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="S42" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>45</v>
+      </c>
+      <c r="U42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44638</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F43" s="74">
+        <f t="shared" si="1"/>
+        <v>1.0054794520547945</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>69.100000000000009</v>
+      </c>
+      <c r="I43" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="2"/>
+        <v>70.300000000000011</v>
+      </c>
+      <c r="K43" s="2">
+        <v>33.14</v>
+      </c>
+      <c r="L43">
+        <v>-9.7199999999999995E-2</v>
+      </c>
+      <c r="P43">
+        <v>64</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>26</v>
+      </c>
+      <c r="R43" s="2">
+        <v>35</v>
+      </c>
+      <c r="S43" s="2">
+        <v>45</v>
+      </c>
+      <c r="T43">
+        <v>50</v>
+      </c>
+      <c r="U43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44638</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F44" s="74">
+        <f t="shared" si="1"/>
+        <v>1.0054794520547945</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>156.1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>159.4</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="2"/>
+        <v>157.75</v>
+      </c>
+      <c r="K44" s="2">
+        <v>27.35</v>
+      </c>
+      <c r="L44">
+        <v>-0.21790000000000001</v>
+      </c>
+      <c r="P44">
+        <v>92</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>29</v>
+      </c>
+      <c r="R44" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" s="2">
+        <v>50</v>
+      </c>
+      <c r="T44" s="2">
+        <v>60</v>
+      </c>
+      <c r="U44" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44638</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F45" s="74">
+        <f t="shared" si="1"/>
+        <v>1.0054794520547945</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3850</v>
+      </c>
+      <c r="H45" s="3">
+        <v>379.40000000000003</v>
+      </c>
+      <c r="I45" s="3">
+        <v>384.5</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="2"/>
+        <v>381.95000000000005</v>
+      </c>
+      <c r="K45" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="L45">
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44638</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F46" s="74">
+        <f t="shared" si="1"/>
+        <v>1.0054794520547945</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4475</v>
+      </c>
+      <c r="H46" s="3">
+        <v>90.3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="2"/>
+        <v>92.1</v>
+      </c>
+      <c r="K46">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0.24679999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44638</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F47" s="74">
+        <f t="shared" si="1"/>
+        <v>1.0054794520547945</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>37.800000000000004</v>
+      </c>
+      <c r="I47" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="2"/>
+        <v>39.150000000000006</v>
+      </c>
+      <c r="K47">
+        <v>16.45</v>
+      </c>
+      <c r="L47">
+        <v>0.12790000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44272</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ref="E50:E69" si="3">D50-$C$5</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="74">
+        <f t="shared" ref="F50:F69" si="4">E50/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J50" s="75">
+        <f t="shared" ref="J50:J69" si="5">(H50+I50)/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P50">
+        <v>36</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="S50">
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="T50">
+        <v>0.875</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44272</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="74">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J51" s="75">
+        <f t="shared" si="5"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="P51">
+        <v>64</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>3.95</v>
+      </c>
+      <c r="R51" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S51" s="18">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="T51" s="18">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U51" s="78">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44272</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="74">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G52" s="2">
+        <v>22</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J52" s="75">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="P52">
+        <v>92</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R52" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44272</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="74">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>23</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J53" s="75">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44272</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="74">
+        <f t="shared" si="4"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>24</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J54" s="75">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="P54" s="77"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44307</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F55" s="74">
+        <f t="shared" si="4"/>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>26</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J55" s="75">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>166.51339999999999</v>
+      </c>
+      <c r="L55">
+        <v>0.4199</v>
+      </c>
+      <c r="P55" s="77"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44307</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F56" s="74">
+        <f t="shared" si="4"/>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="J56" s="75">
+        <f t="shared" si="5"/>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="K56" s="2">
+        <v>184.5205</v>
+      </c>
+      <c r="L56">
+        <v>0.2878</v>
+      </c>
+      <c r="P56" s="77"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44307</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F57" s="74">
+        <f t="shared" si="4"/>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="J57" s="75">
+        <f t="shared" si="5"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="K57" s="2">
+        <v>202.55500000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.2036</v>
+      </c>
+      <c r="P57" s="77"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5">
+        <v>44307</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F58" s="74">
+        <f t="shared" si="4"/>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="G58">
+        <v>45</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="J58" s="75">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="K58">
+        <v>208.74799999999999</v>
+      </c>
+      <c r="L58">
+        <v>0.1678</v>
+      </c>
+      <c r="P58" s="75"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5">
+        <v>44307</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F59" s="74">
+        <f t="shared" si="4"/>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="G59">
+        <v>55</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I59">
+        <v>0.65</v>
+      </c>
+      <c r="J59" s="75">
+        <f t="shared" si="5"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K59">
+        <v>220.29920000000001</v>
+      </c>
+      <c r="L59">
+        <v>0.1147</v>
+      </c>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44335</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F60" s="74">
+        <f t="shared" si="4"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="G60" s="2">
+        <v>26</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J60" s="75">
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="K60" s="2">
+        <v>161.17349999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44335</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F61" s="74">
+        <f t="shared" si="4"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="G61" s="2">
+        <v>35</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="J61" s="75">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K61" s="2">
+        <v>169.6207</v>
+      </c>
+      <c r="L61">
+        <v>0.33850000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44335</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F62" s="74">
+        <f t="shared" si="4"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="J62" s="75">
+        <f t="shared" si="5"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="K62" s="2">
+        <v>178.12180000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.2341</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5">
+        <v>44335</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F63" s="74">
+        <f t="shared" si="4"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="I63">
+        <v>1.3</v>
+      </c>
+      <c r="J63" s="75">
+        <f t="shared" si="5"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K63">
+        <v>181.35159999999999</v>
+      </c>
+      <c r="L63">
+        <v>0.1993</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5">
+        <v>44335</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F64" s="74">
+        <f t="shared" si="4"/>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="G64">
+        <v>60</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I64">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="J64" s="75">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="K64">
+        <v>186.57689999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.14829999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44363</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F65" s="74">
+        <f t="shared" si="4"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="G65" s="2">
+        <v>29</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J65" s="75">
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="K65" s="2">
+        <v>152.8246</v>
+      </c>
+      <c r="L65">
+        <v>0.47860000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44363</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F66" s="74">
+        <f t="shared" si="4"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="G66" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="J66" s="75">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="K66" s="2">
+        <v>155.458</v>
+      </c>
+      <c r="L66">
+        <v>0.31580000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44363</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F67" s="74">
+        <f t="shared" si="4"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="G67" s="2">
+        <v>50</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="J67" s="75">
+        <f t="shared" si="5"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="K67" s="2">
+        <v>158.6327</v>
+      </c>
+      <c r="L67">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="P67" s="76"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44363</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F68" s="74">
+        <f t="shared" si="4"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="G68" s="2">
+        <v>60</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="J68" s="75">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="K68" s="2">
+        <v>161.48320000000001</v>
+      </c>
+      <c r="L68">
+        <v>0.1681</v>
+      </c>
+      <c r="P68" s="76"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44363</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F69" s="74">
+        <f t="shared" si="4"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="G69" s="2">
+        <v>70</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="J69" s="75">
+        <f t="shared" si="5"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K69" s="2">
+        <v>165.10120000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="P69" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>